--- a/data/trans_bre/P1428-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1428-Edad-trans_bre.xlsx
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.27488541899568</v>
+        <v>-1.228133921906073</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2022012197751109</v>
+        <v>-0.3340255669103035</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5637772398061173</v>
+        <v>0.5391728925228467</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4965816231007879</v>
+        <v>0.6388748931664121</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.373168938887597</v>
+        <v>1.372748005428139</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.659546869799606</v>
+        <v>1.652529506626185</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.131644221088066</v>
+        <v>5.458994870637888</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -750,23 +750,21 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.1227420154984565</v>
+        <v>-0.07793214319143128</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.021108626465388</v>
+        <v>-2.147464474112041</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5228390630970194</v>
+        <v>-0.5386337698185282</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4259364206147004</v>
+        <v>0.474872854430093</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5014769038202486</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>-0.9285937942611471</v>
-      </c>
+        <v>-0.4233838068142551</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
     </row>
@@ -778,21 +776,19 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.081010105968128</v>
+        <v>2.118586427412601</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2105239389662334</v>
+        <v>0.1480203704333491</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.033805236924711</v>
+        <v>0.9775816625029321</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.618667715266597</v>
+        <v>2.591238437525202</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
-      <c r="H9" s="6" t="n">
-        <v>1.167551304719395</v>
-      </c>
+      <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
     </row>
@@ -840,28 +836,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.312433622958589</v>
+        <v>3.394919044760229</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1968376494451503</v>
+        <v>-0.2473455015571012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.103635297700765</v>
+        <v>-1.092278113289299</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5398950401218047</v>
+        <v>0.2800310925411409</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>2.21344631179173</v>
+        <v>2.564791947719963</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2255276539618795</v>
+        <v>-0.2561641109573708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.695892483063836</v>
+        <v>-0.6479594962762073</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1748740278807096</v>
+        <v>-0.02051437532077021</v>
       </c>
     </row>
     <row r="12">
@@ -872,28 +868,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.984217654915405</v>
+        <v>7.012586635961124</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.231529672344309</v>
+        <v>2.265239852982149</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.252121798865459</v>
+        <v>1.359833595543583</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.186884286727627</v>
+        <v>3.157796333648945</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>34.46619522600422</v>
+        <v>36.32179203209496</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.513996973350062</v>
+        <v>4.325862606872097</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.413030743714711</v>
+        <v>2.420483893346272</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>5.919398095944512</v>
+        <v>5.544391028468574</v>
       </c>
     </row>
     <row r="13">
@@ -940,28 +936,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.060279087358</v>
+        <v>6.06525086104357</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.482504085629992</v>
+        <v>3.546764033004312</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1616931349859275</v>
+        <v>0.2011259899322881</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.502307085940524</v>
+        <v>2.317147661966469</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8345646741302114</v>
+        <v>0.8817051404911154</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.110566508141613</v>
+        <v>1.063673504332346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.002440261314097038</v>
+        <v>0.00665126976045064</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.448810420055912</v>
+        <v>0.4325763540946909</v>
       </c>
     </row>
     <row r="15">
@@ -972,28 +968,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.21578809341225</v>
+        <v>13.37788050676053</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.814692119298833</v>
+        <v>8.78523673906391</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.386851401320325</v>
+        <v>5.578243969140224</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.775421322853564</v>
+        <v>7.064480937067606</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.498314391971238</v>
+        <v>3.617280962958589</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8.780911294081612</v>
+        <v>8.161496233833487</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.860626789570521</v>
+        <v>2.011370977949415</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.357612940577205</v>
+        <v>2.652149982749787</v>
       </c>
     </row>
     <row r="16">
@@ -1029,7 +1025,7 @@
         <v>2.230192385983611</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.457556947732066</v>
+        <v>1.457556947732067</v>
       </c>
     </row>
     <row r="17">
@@ -1040,28 +1036,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.387750125459219</v>
+        <v>5.744043330879476</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.233183020285069</v>
+        <v>5.996903424658067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.146902539660911</v>
+        <v>7.386734691494616</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.578064264784761</v>
+        <v>7.633089413322142</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2766169760864925</v>
+        <v>0.2765131555559762</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5391735149120553</v>
+        <v>0.4980315611517639</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.008371839076928</v>
+        <v>1.021676169891985</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.8213896649487895</v>
+        <v>0.867142509739638</v>
       </c>
     </row>
     <row r="18">
@@ -1072,28 +1068,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.71374699090458</v>
+        <v>16.96658370438792</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.8710052787778</v>
+        <v>15.73126290577951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.16994390462017</v>
+        <v>15.4178964715187</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.90068394583196</v>
+        <v>13.73801082341152</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.322058147133488</v>
+        <v>1.190639623099825</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.163481649789815</v>
+        <v>2.165194361143073</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.456523383181235</v>
+        <v>4.602272499396356</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.438392763085193</v>
+        <v>2.42384761639875</v>
       </c>
     </row>
     <row r="19">
@@ -1140,28 +1136,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>18.2821433813195</v>
+        <v>17.90805326454091</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.136213991767764</v>
+        <v>9.34633201778955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12.58123038983036</v>
+        <v>11.98235358548216</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15.82438242491789</v>
+        <v>15.86694320703688</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6870051780072226</v>
+        <v>0.7028250874197625</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.453250774341455</v>
+        <v>0.4744263983163852</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.208863840396771</v>
+        <v>1.146202980343678</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.300440400769528</v>
+        <v>1.247171648223601</v>
       </c>
     </row>
     <row r="21">
@@ -1172,28 +1168,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>32.32332003943887</v>
+        <v>31.33259184765497</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.40865012256032</v>
+        <v>22.68031418769612</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22.69467730996322</v>
+        <v>23.17191979577581</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>23.76154407105554</v>
+        <v>23.87910337900404</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.762062496993309</v>
+        <v>1.76014855521302</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.67998799852886</v>
+        <v>1.682758389725086</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.291804717197789</v>
+        <v>4.472451968052149</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.884915562453738</v>
+        <v>2.825742683021505</v>
       </c>
     </row>
     <row r="22">
@@ -1217,7 +1213,7 @@
         <v>10.54375212647157</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21.82242731244371</v>
+        <v>21.82242731244372</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7166320243330323</v>
@@ -1229,7 +1225,7 @@
         <v>0.6954926923995297</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.040518735458181</v>
+        <v>1.040518735458182</v>
       </c>
     </row>
     <row r="23">
@@ -1240,28 +1236,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>16.66811192204059</v>
+        <v>17.2231840349905</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>12.03451286730861</v>
+        <v>11.91850188583603</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.428237515110571</v>
+        <v>3.391189155874473</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16.22890988759069</v>
+        <v>16.33370178258464</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4237705708642286</v>
+        <v>0.4358635000618036</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.424064140894285</v>
+        <v>0.4131354985941999</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2383205381260459</v>
+        <v>0.1775874197806241</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.6498709798912476</v>
+        <v>0.6707301790226066</v>
       </c>
     </row>
     <row r="24">
@@ -1272,28 +1268,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>33.08288960432333</v>
+        <v>33.82933174041862</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>27.23260058428692</v>
+        <v>26.78284386694244</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.58904071094069</v>
+        <v>16.19805705539563</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26.69792386542322</v>
+        <v>26.54682492839574</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.137147202625256</v>
+        <v>1.180933003581083</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.470644217442612</v>
+        <v>1.394554179090302</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.396845585654682</v>
+        <v>1.299979931496188</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.494052910083742</v>
+        <v>1.482747039564955</v>
       </c>
     </row>
     <row r="25">
@@ -1317,7 +1313,7 @@
         <v>5.776275237147223</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9.129838719774845</v>
+        <v>9.129838719774847</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>1.445201286065596</v>
@@ -1340,28 +1336,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>8.772134973954742</v>
+        <v>8.976453310273346</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.990632584752474</v>
+        <v>5.842422995522289</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.490598253340332</v>
+        <v>4.575247910739743</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.939005192946931</v>
+        <v>8.117545041242623</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1.125304265752564</v>
+        <v>1.158725382549788</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.045369615688792</v>
+        <v>1.029710518851731</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.051545567635488</v>
+        <v>1.141516074670922</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.337029985637224</v>
+        <v>1.407224402902023</v>
       </c>
     </row>
     <row r="27">
@@ -1372,28 +1368,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>12.0654681137419</v>
+        <v>12.14806838705491</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.54997859447808</v>
+        <v>8.64588715312706</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.990422343654047</v>
+        <v>7.068619627509078</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10.28813136051099</v>
+        <v>10.26155060446607</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.845550677639348</v>
+        <v>1.872995192185159</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.876291753221577</v>
+        <v>1.874315947807858</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.225884250571964</v>
+        <v>2.27040645986407</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.148010878249176</v>
+        <v>2.205602959159916</v>
       </c>
     </row>
     <row r="28">
